--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1078182.433515031</v>
+        <v>-1080738.74934228</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>22.11196976343497</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>74.5568185402483</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>46.66139061606894</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>100.2063103874219</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>353.4474846473477</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>336.4750060553592</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>16.91733018126246</v>
       </c>
       <c r="G7" t="n">
-        <v>58.16127495882482</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>262.6079452259654</v>
       </c>
       <c r="H8" t="n">
-        <v>137.0709134223711</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>267.590617706435</v>
+        <v>222.5627937563451</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.05806357631725</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>161.0175085755487</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>28.42659968729146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>100.58583229927</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881283</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>83.71156409265926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.3870054807226</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>174.9868265178721</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652662</v>
+        <v>56.98118882652652</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392135</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D2" t="n">
-        <v>552.8079389392135</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>477.498021221791</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>66.5121164321834</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2325.505862906803</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7614736385282</v>
+        <v>631.469835781224</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445191</v>
+        <v>462.5336528533171</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>666.202517612298</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X4" t="n">
-        <v>666.202517612298</v>
+        <v>631.469835781224</v>
       </c>
       <c r="Y4" t="n">
-        <v>445.4099384687679</v>
+        <v>631.469835781224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471215</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C5" t="n">
-        <v>1517.887535471215</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D5" t="n">
-        <v>1517.887535471215</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
-        <v>1132.099282872971</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>721.1133780833634</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
         <v>364.0957168234162</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4604,13 +4604,13 @@
         <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="6">
@@ -4638,25 +4638,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.6393785387522</v>
+        <v>252.5365116643958</v>
       </c>
       <c r="C7" t="n">
-        <v>372.7031956108453</v>
+        <v>83.60032873648893</v>
       </c>
       <c r="D7" t="n">
-        <v>222.5865561985096</v>
+        <v>83.60032873648893</v>
       </c>
       <c r="E7" t="n">
-        <v>222.5865561985096</v>
+        <v>83.60032873648893</v>
       </c>
       <c r="F7" t="n">
-        <v>222.5865561985096</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4756,19 +4756,19 @@
         <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W7" t="n">
-        <v>541.6393785387522</v>
+        <v>252.5365116643958</v>
       </c>
       <c r="X7" t="n">
-        <v>541.6393785387522</v>
+        <v>252.5365116643958</v>
       </c>
       <c r="Y7" t="n">
-        <v>541.6393785387522</v>
+        <v>252.5365116643958</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1458.811090838975</v>
+        <v>1405.526882613611</v>
       </c>
       <c r="C8" t="n">
-        <v>1458.811090838975</v>
+        <v>1036.5643656732</v>
       </c>
       <c r="D8" t="n">
-        <v>1458.811090838975</v>
+        <v>678.2986670664493</v>
       </c>
       <c r="E8" t="n">
-        <v>1073.022838240731</v>
+        <v>678.2986670664493</v>
       </c>
       <c r="F8" t="n">
-        <v>662.0369334511233</v>
+        <v>671.3531663172458</v>
       </c>
       <c r="G8" t="n">
-        <v>246.9644832961198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,22 +4802,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878909</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.410930903097</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4893,10 +4893,10 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>650.5934525793617</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C10" t="n">
-        <v>481.6572696514548</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4996,16 +4996,16 @@
         <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W10" t="n">
-        <v>650.5934525793617</v>
+        <v>441.3916148281111</v>
       </c>
       <c r="X10" t="n">
-        <v>650.5934525793617</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.5934525793617</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340307</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.11357044229</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.1522880254209</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>493.2161050975141</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2345.361232772917</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.759767795858</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.684541140056</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.000052934169</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1292.582882897208</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1064.593331999191</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.8007528556607</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5753,19 +5753,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
         <v>402.7245934908939</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3403484614387</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4041655335318</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>664.287526121196</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3744325388029</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4844850408925</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>202.2883857557725</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6847,13 +6847,13 @@
         <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345484</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384028</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,13 +6950,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7369,10 +7369,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7795,28 +7795,28 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380722</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311317</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532431</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>360.6218719000456</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>307.3735515320135</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>120.5854304825589</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>48.40916263079046</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.93290899728269</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>135.3155374067875</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.77391660562004</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,7 +23464,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016435</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>125.5054897610423</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>80.44045370237458</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.90770736550128</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>111.1976478713721</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-5.704326028209812e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1015512.845365931</v>
+        <v>1015512.845365932</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943217</v>
+        <v>169252.1408943218</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660707</v>
@@ -26320,13 +26320,13 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="F2" t="n">
         <v>201786.6499225016</v>
       </c>
-      <c r="F2" t="n">
-        <v>201786.6499225015</v>
-      </c>
       <c r="G2" t="n">
-        <v>201786.6499225014</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
         <v>201786.6499225015</v>
@@ -26341,13 +26341,13 @@
         <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660713</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660709</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691503</v>
+        <v>11387.33216691509</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="F4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>15436.64000687969</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687968</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="J4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997317</v>
+        <v>23427.49926997318</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997318</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997316</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997312</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997315</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1278813.877561579</v>
+        <v>-1279173.960577297</v>
       </c>
       <c r="C6" t="n">
-        <v>3729.75780062488</v>
+        <v>3729.757800624691</v>
       </c>
       <c r="D6" t="n">
-        <v>3729.757800624939</v>
+        <v>3729.757800624953</v>
       </c>
       <c r="E6" t="n">
-        <v>-240184.9817156403</v>
+        <v>-240219.7196410761</v>
       </c>
       <c r="F6" t="n">
-        <v>85227.48009171472</v>
+        <v>85192.74216627909</v>
       </c>
       <c r="G6" t="n">
-        <v>85227.48009171463</v>
+        <v>85192.74216627909</v>
       </c>
       <c r="H6" t="n">
-        <v>85227.48009171472</v>
+        <v>85192.74216627906</v>
       </c>
       <c r="I6" t="n">
-        <v>85227.48009171478</v>
+        <v>85192.74216627909</v>
       </c>
       <c r="J6" t="n">
-        <v>-132303.7223055626</v>
+        <v>-132338.4602309984</v>
       </c>
       <c r="K6" t="n">
-        <v>85227.48009171478</v>
+        <v>85192.74216627915</v>
       </c>
       <c r="L6" t="n">
-        <v>59241.10934855088</v>
+        <v>59241.10934855092</v>
       </c>
       <c r="M6" t="n">
-        <v>-6386.200593329093</v>
+        <v>-6386.200593329355</v>
       </c>
       <c r="N6" t="n">
-        <v>78668.8273421826</v>
+        <v>78668.82734218228</v>
       </c>
       <c r="O6" t="n">
-        <v>78668.82734218225</v>
+        <v>78668.8273421824</v>
       </c>
       <c r="P6" t="n">
-        <v>78668.82734218237</v>
+        <v>78668.82734218231</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>138.0928992617455</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>84.23341186938171</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>57.47424100610573</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>49.76293260069434</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>128.5037178416688</v>
       </c>
       <c r="G7" t="n">
-        <v>107.8645333002034</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>148.3137804274881</v>
       </c>
       <c r="H8" t="n">
-        <v>157.5368509649494</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>18.93238063015599</v>
+        <v>63.96020458024586</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32713,7 +32713,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
         <v>965.6463440175675</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37476,7 +37476,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
